--- a/Intermediate_data/Count result.xlsx
+++ b/Intermediate_data/Count result.xlsx
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
         <v>50</v>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
         <v>80</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
         <v>120</v>
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="E5" t="n">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
         <v>200</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="F6" t="n">
         <v>100</v>

--- a/Intermediate_data/Count result.xlsx
+++ b/Intermediate_data/Count result.xlsx
@@ -478,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
         <v>50</v>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F3" t="n">
         <v>80</v>
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
         <v>120</v>
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="F5" t="n">
         <v>200</v>
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="F6" t="n">
         <v>100</v>

--- a/Intermediate_data/Count result.xlsx
+++ b/Intermediate_data/Count result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
@@ -514,22 +514,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>12:00:00</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
       <c r="D4" t="n">
+        <v>54</v>
+      </c>
+      <c r="E4" t="n">
         <v>72</v>
       </c>
-      <c r="E4" t="n">
-        <v>108</v>
-      </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -538,22 +538,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
@@ -562,21 +562,69 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>108</v>
+      </c>
+      <c r="F6" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>108</v>
+      </c>
+      <c r="E7" t="n">
+        <v>132</v>
+      </c>
+      <c r="F7" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>126</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="D8" t="n">
+        <v>132</v>
+      </c>
+      <c r="E8" t="n">
         <v>144</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F8" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Intermediate_data/Count result.xlsx
+++ b/Intermediate_data/Count result.xlsx
@@ -471,14 +471,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>06:30:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>

--- a/Intermediate_data/Count result.xlsx
+++ b/Intermediate_data/Count result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>01:00:00</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -490,22 +490,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>06:30:00</t>
+          <t>01:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -514,22 +514,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>02:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -538,22 +538,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>03:00:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -562,22 +562,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>04:00:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>05:00:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>06:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -610,22 +610,430 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>06:00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>42</v>
+      </c>
+      <c r="F8" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>07:00:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>42</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48</v>
+      </c>
+      <c r="F9" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>08:00:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" t="n">
+        <v>54</v>
+      </c>
+      <c r="F10" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>54</v>
+      </c>
+      <c r="E11" t="n">
+        <v>60</v>
+      </c>
+      <c r="F11" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>60</v>
+      </c>
+      <c r="E12" t="n">
+        <v>66</v>
+      </c>
+      <c r="F12" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>66</v>
+      </c>
+      <c r="E13" t="n">
+        <v>72</v>
+      </c>
+      <c r="F13" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>72</v>
+      </c>
+      <c r="E14" t="n">
+        <v>78</v>
+      </c>
+      <c r="F14" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>78</v>
+      </c>
+      <c r="E15" t="n">
+        <v>84</v>
+      </c>
+      <c r="F15" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>84</v>
+      </c>
+      <c r="E16" t="n">
+        <v>90</v>
+      </c>
+      <c r="F16" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>90</v>
+      </c>
+      <c r="E17" t="n">
+        <v>96</v>
+      </c>
+      <c r="F17" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>102</v>
+      </c>
+      <c r="F18" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>102</v>
+      </c>
+      <c r="E19" t="n">
+        <v>108</v>
+      </c>
+      <c r="F19" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>108</v>
+      </c>
+      <c r="E20" t="n">
+        <v>114</v>
+      </c>
+      <c r="F20" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>114</v>
+      </c>
+      <c r="E21" t="n">
+        <v>120</v>
+      </c>
+      <c r="F21" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>120</v>
+      </c>
+      <c r="E22" t="n">
+        <v>126</v>
+      </c>
+      <c r="F22" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>21:00:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D23" t="n">
+        <v>126</v>
+      </c>
+      <c r="E23" t="n">
+        <v>132</v>
+      </c>
+      <c r="F23" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>132</v>
+      </c>
+      <c r="E24" t="n">
+        <v>138</v>
+      </c>
+      <c r="F24" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>23:00:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>132</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D25" t="n">
+        <v>138</v>
+      </c>
+      <c r="E25" t="n">
         <v>144</v>
       </c>
-      <c r="F8" t="n">
-        <v>100</v>
+      <c r="F25" t="n">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
